--- a/data/pca/factorExposure/factorExposure_2015-05-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02041892917386766</v>
+        <v>0.01116162131083863</v>
       </c>
       <c r="C2">
-        <v>0.01899833202104448</v>
+        <v>-0.05339140071680652</v>
       </c>
       <c r="D2">
-        <v>-0.107125657398655</v>
+        <v>-0.1287519375932621</v>
       </c>
       <c r="E2">
-        <v>-0.01332046476941274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0251836263864688</v>
+      </c>
+      <c r="F2">
+        <v>-0.02970995162978039</v>
+      </c>
+      <c r="G2">
+        <v>0.1136148928160498</v>
+      </c>
+      <c r="H2">
+        <v>-0.08131906275996757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04482006002920616</v>
+        <v>0.01942695004034512</v>
       </c>
       <c r="C4">
-        <v>0.07206104699669878</v>
+        <v>-0.1065634673611516</v>
       </c>
       <c r="D4">
-        <v>-0.1248026398037208</v>
+        <v>-0.1315045203112119</v>
       </c>
       <c r="E4">
-        <v>-0.08652215099744999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01033870564512145</v>
+      </c>
+      <c r="F4">
+        <v>-0.09075077678728055</v>
+      </c>
+      <c r="G4">
+        <v>0.008391110446579938</v>
+      </c>
+      <c r="H4">
+        <v>-0.04621423333777507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02118485361677251</v>
+        <v>0.02678023348623922</v>
       </c>
       <c r="C6">
-        <v>0.01254217395094064</v>
+        <v>-0.03532108059008343</v>
       </c>
       <c r="D6">
-        <v>-0.1366868280010264</v>
+        <v>-0.1214339112305424</v>
       </c>
       <c r="E6">
-        <v>-0.03969267044452186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.05974459964165672</v>
+      </c>
+      <c r="F6">
+        <v>-0.04682868734625498</v>
+      </c>
+      <c r="G6">
+        <v>-4.186003095608981e-05</v>
+      </c>
+      <c r="H6">
+        <v>-0.04200808944584163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002673243945265509</v>
+        <v>0.008744762992770676</v>
       </c>
       <c r="C7">
-        <v>0.02364595489617276</v>
+        <v>-0.03798280623557374</v>
       </c>
       <c r="D7">
-        <v>-0.1120053510223474</v>
+        <v>-0.09718824904810286</v>
       </c>
       <c r="E7">
-        <v>-0.005801713337687678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05432349300526777</v>
+      </c>
+      <c r="F7">
+        <v>-0.01049433440757753</v>
+      </c>
+      <c r="G7">
+        <v>-0.008668397275860861</v>
+      </c>
+      <c r="H7">
+        <v>-0.08059756291049684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.004806562656190708</v>
+        <v>-0.008416669777140933</v>
       </c>
       <c r="C8">
-        <v>0.02609039238166464</v>
+        <v>-0.03572703116081179</v>
       </c>
       <c r="D8">
-        <v>-0.07855574161135183</v>
+        <v>-0.07667237463248794</v>
       </c>
       <c r="E8">
-        <v>-0.02338722042683778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03886331344846007</v>
+      </c>
+      <c r="F8">
+        <v>-0.04939156340153839</v>
+      </c>
+      <c r="G8">
+        <v>0.06175009380377992</v>
+      </c>
+      <c r="H8">
+        <v>-0.005194177283163974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03601986442887054</v>
+        <v>0.01343082723171328</v>
       </c>
       <c r="C9">
-        <v>0.06150165097817849</v>
+        <v>-0.08837357548470214</v>
       </c>
       <c r="D9">
-        <v>-0.128127064483563</v>
+        <v>-0.1141874961247718</v>
       </c>
       <c r="E9">
-        <v>-0.07060791186371734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01285674740873388</v>
+      </c>
+      <c r="F9">
+        <v>-0.05980800296120316</v>
+      </c>
+      <c r="G9">
+        <v>-0.01340214991186324</v>
+      </c>
+      <c r="H9">
+        <v>-0.05905669772464053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1716185125296414</v>
+        <v>0.2408414369004516</v>
       </c>
       <c r="C10">
-        <v>-0.1702270096458695</v>
+        <v>0.0944989183797592</v>
       </c>
       <c r="D10">
-        <v>-0.002674264026569363</v>
+        <v>0.002869141371115501</v>
       </c>
       <c r="E10">
-        <v>-0.04320385313794023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01001943758171096</v>
+      </c>
+      <c r="F10">
+        <v>-0.04416898591357606</v>
+      </c>
+      <c r="G10">
+        <v>-0.0005057618292001857</v>
+      </c>
+      <c r="H10">
+        <v>0.03887648813503191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01835616596545109</v>
+        <v>0.01018521878766967</v>
       </c>
       <c r="C11">
-        <v>0.04114729392912823</v>
+        <v>-0.05538580710628958</v>
       </c>
       <c r="D11">
-        <v>-0.04607166041056369</v>
+        <v>-0.04339454963256094</v>
       </c>
       <c r="E11">
-        <v>0.01449864012154633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02002615103658918</v>
+      </c>
+      <c r="F11">
+        <v>0.01183780965979543</v>
+      </c>
+      <c r="G11">
+        <v>-0.005403337174684388</v>
+      </c>
+      <c r="H11">
+        <v>-0.04438954911732252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01887087826841363</v>
+        <v>0.01035464409913678</v>
       </c>
       <c r="C12">
-        <v>0.04063798378611529</v>
+        <v>-0.04949533172051992</v>
       </c>
       <c r="D12">
-        <v>-0.05956820324352596</v>
+        <v>-0.04699075858790042</v>
       </c>
       <c r="E12">
-        <v>0.003500707851075408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01520116374746302</v>
+      </c>
+      <c r="F12">
+        <v>0.01515839882879118</v>
+      </c>
+      <c r="G12">
+        <v>-0.02458917403718185</v>
+      </c>
+      <c r="H12">
+        <v>-0.06421961048923902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001316835766375214</v>
+        <v>-0.003005669887957937</v>
       </c>
       <c r="C13">
-        <v>0.02196821243286178</v>
+        <v>-0.04737031540919029</v>
       </c>
       <c r="D13">
-        <v>-0.1443898277047644</v>
+        <v>-0.152297724944212</v>
       </c>
       <c r="E13">
-        <v>-0.04045376233714353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04175643898081171</v>
+      </c>
+      <c r="F13">
+        <v>-0.0356645881960093</v>
+      </c>
+      <c r="G13">
+        <v>0.01292153046496884</v>
+      </c>
+      <c r="H13">
+        <v>-0.07839875828433519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.00583974600253646</v>
+        <v>0.001590146307094114</v>
       </c>
       <c r="C14">
-        <v>0.01645116048964643</v>
+        <v>-0.03062038429968334</v>
       </c>
       <c r="D14">
-        <v>-0.09523689638888139</v>
+        <v>-0.1015386321117088</v>
       </c>
       <c r="E14">
-        <v>-0.01363570707935982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05068299042820709</v>
+      </c>
+      <c r="F14">
+        <v>-0.03690707568824377</v>
+      </c>
+      <c r="G14">
+        <v>0.01441653924894433</v>
+      </c>
+      <c r="H14">
+        <v>-0.1316865954368633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002817925174445812</v>
+        <v>-0.001484695507192019</v>
       </c>
       <c r="C15">
-        <v>0.01057589687198288</v>
+        <v>-0.02584329771797325</v>
       </c>
       <c r="D15">
-        <v>-0.03244642123147949</v>
+        <v>-0.05999515882961707</v>
       </c>
       <c r="E15">
-        <v>0.003205539413555827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01142587004135869</v>
+      </c>
+      <c r="F15">
+        <v>-0.007206391965800957</v>
+      </c>
+      <c r="G15">
+        <v>0.01819853409133675</v>
+      </c>
+      <c r="H15">
+        <v>-0.03413724893686546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01834396938824302</v>
+        <v>0.01021780526393614</v>
       </c>
       <c r="C16">
-        <v>0.03648174994566898</v>
+        <v>-0.04924701698933202</v>
       </c>
       <c r="D16">
-        <v>-0.05216589887971586</v>
+        <v>-0.04399695768291819</v>
       </c>
       <c r="E16">
-        <v>0.005654161510929986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0216988979519208</v>
+      </c>
+      <c r="F16">
+        <v>0.007375757991895005</v>
+      </c>
+      <c r="G16">
+        <v>-0.01688636508517618</v>
+      </c>
+      <c r="H16">
+        <v>-0.04406405941329494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003275873993257137</v>
+        <v>-0.0001106958739312717</v>
       </c>
       <c r="C19">
-        <v>0.01795865048659207</v>
+        <v>-0.01699111867626133</v>
       </c>
       <c r="D19">
-        <v>-0.1028338005402554</v>
+        <v>-0.06428319214325583</v>
       </c>
       <c r="E19">
-        <v>-0.04733863136374072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01020896157970331</v>
+      </c>
+      <c r="F19">
+        <v>-0.0147222284804379</v>
+      </c>
+      <c r="G19">
+        <v>0.01121231765216914</v>
+      </c>
+      <c r="H19">
+        <v>-0.05687617499770915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001807465047283089</v>
+        <v>0.005112847841292234</v>
       </c>
       <c r="C20">
-        <v>0.02461731342906971</v>
+        <v>-0.04054045530048127</v>
       </c>
       <c r="D20">
-        <v>-0.08498695669869832</v>
+        <v>-0.09147968994750494</v>
       </c>
       <c r="E20">
-        <v>-0.03423104149782666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02410497126671845</v>
+      </c>
+      <c r="F20">
+        <v>-0.02859015303529916</v>
+      </c>
+      <c r="G20">
+        <v>-0.006117708471025974</v>
+      </c>
+      <c r="H20">
+        <v>-0.05469846488660547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005233057255776578</v>
+        <v>0.005591095483716889</v>
       </c>
       <c r="C21">
-        <v>0.02821020110071329</v>
+        <v>-0.04511737712275465</v>
       </c>
       <c r="D21">
-        <v>-0.1591749252584969</v>
+        <v>-0.1308515154931119</v>
       </c>
       <c r="E21">
-        <v>-0.08124140029224859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03067892671417403</v>
+      </c>
+      <c r="F21">
+        <v>-0.09700823042139448</v>
+      </c>
+      <c r="G21">
+        <v>0.02145322433640849</v>
+      </c>
+      <c r="H21">
+        <v>-0.1958196694642083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002013638646169636</v>
+        <v>-0.01358421946939967</v>
       </c>
       <c r="C22">
-        <v>0.06298781297104279</v>
+        <v>-0.08856550063383528</v>
       </c>
       <c r="D22">
-        <v>-0.2490045691725644</v>
+        <v>-0.2554680516079381</v>
       </c>
       <c r="E22">
-        <v>0.01455390633103414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06033224601174009</v>
+      </c>
+      <c r="F22">
+        <v>-0.003373919306422092</v>
+      </c>
+      <c r="G22">
+        <v>0.3785644348608368</v>
+      </c>
+      <c r="H22">
+        <v>0.4155514613872439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001761941029673427</v>
+        <v>-0.0103313795298529</v>
       </c>
       <c r="C23">
-        <v>0.063508596322365</v>
+        <v>-0.09014417001257068</v>
       </c>
       <c r="D23">
-        <v>-0.248406425825252</v>
+        <v>-0.2581321078447695</v>
       </c>
       <c r="E23">
-        <v>0.01444190634088778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05560597362383637</v>
+      </c>
+      <c r="F23">
+        <v>-0.00661068404224321</v>
+      </c>
+      <c r="G23">
+        <v>0.3668122560124595</v>
+      </c>
+      <c r="H23">
+        <v>0.3997943209189635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02322982737283453</v>
+        <v>0.009505552179187865</v>
       </c>
       <c r="C24">
-        <v>0.05576272996531517</v>
+        <v>-0.06591048503863749</v>
       </c>
       <c r="D24">
-        <v>-0.06351193714842826</v>
+        <v>-0.04942341402840078</v>
       </c>
       <c r="E24">
-        <v>0.0006725657383969319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.0294331718827269</v>
+      </c>
+      <c r="F24">
+        <v>0.003215608134602758</v>
+      </c>
+      <c r="G24">
+        <v>-0.007519633868841185</v>
+      </c>
+      <c r="H24">
+        <v>-0.07032887990782009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02521182629923775</v>
+        <v>0.0142142977000777</v>
       </c>
       <c r="C25">
-        <v>0.04756683193592948</v>
+        <v>-0.06073585254916976</v>
       </c>
       <c r="D25">
-        <v>-0.05972351678437346</v>
+        <v>-0.05015683302747447</v>
       </c>
       <c r="E25">
-        <v>-0.003944338688589221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01434356502961881</v>
+      </c>
+      <c r="F25">
+        <v>0.005529242383592764</v>
+      </c>
+      <c r="G25">
+        <v>-0.01218917866632358</v>
+      </c>
+      <c r="H25">
+        <v>-0.036751604076359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006830190703324035</v>
+        <v>0.01471720270077079</v>
       </c>
       <c r="C26">
-        <v>0.01558853081182156</v>
+        <v>-0.02727296749707714</v>
       </c>
       <c r="D26">
-        <v>-0.08357902075021477</v>
+        <v>-0.06810734252108955</v>
       </c>
       <c r="E26">
-        <v>-0.021232724766499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04254830593573928</v>
+      </c>
+      <c r="F26">
+        <v>-0.04452955443233717</v>
+      </c>
+      <c r="G26">
+        <v>0.0008469048940404039</v>
+      </c>
+      <c r="H26">
+        <v>-0.09774766481872076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2562983325003214</v>
+        <v>0.3196072559977318</v>
       </c>
       <c r="C28">
-        <v>-0.1992111112276186</v>
+        <v>0.09234601423880548</v>
       </c>
       <c r="D28">
-        <v>-0.01721534283377742</v>
+        <v>0.01287463142987774</v>
       </c>
       <c r="E28">
-        <v>-0.05956798736683841</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05075980742642064</v>
+      </c>
+      <c r="F28">
+        <v>-0.04643753001508635</v>
+      </c>
+      <c r="G28">
+        <v>0.04146944012546723</v>
+      </c>
+      <c r="H28">
+        <v>0.01038916850086261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.00164979461690748</v>
+        <v>0.0009936677408589301</v>
       </c>
       <c r="C29">
-        <v>0.02065743835009058</v>
+        <v>-0.03614740303252745</v>
       </c>
       <c r="D29">
-        <v>-0.0959963620208031</v>
+        <v>-0.1036302769433669</v>
       </c>
       <c r="E29">
-        <v>-0.01858551230416448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.058106069087988</v>
+      </c>
+      <c r="F29">
+        <v>-0.03961957077931185</v>
+      </c>
+      <c r="G29">
+        <v>-0.0009359989787329357</v>
+      </c>
+      <c r="H29">
+        <v>-0.1378798165121126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02279979782532103</v>
+        <v>0.01315499934377147</v>
       </c>
       <c r="C30">
-        <v>0.05872670279147621</v>
+        <v>-0.08761278102292394</v>
       </c>
       <c r="D30">
-        <v>-0.1627342226065367</v>
+        <v>-0.1470340612206253</v>
       </c>
       <c r="E30">
-        <v>-0.03075762067307771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05345824185513839</v>
+      </c>
+      <c r="F30">
+        <v>-0.02996784653168231</v>
+      </c>
+      <c r="G30">
+        <v>0.0297622647407788</v>
+      </c>
+      <c r="H30">
+        <v>-0.04705185915008593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03782611686359699</v>
+        <v>0.01026719106408546</v>
       </c>
       <c r="C31">
-        <v>0.08493470377497583</v>
+        <v>-0.09386159988300695</v>
       </c>
       <c r="D31">
-        <v>-0.06756045784671839</v>
+        <v>-0.04018092887665003</v>
       </c>
       <c r="E31">
-        <v>-0.01417804950592113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01917619353674328</v>
+      </c>
+      <c r="F31">
+        <v>-0.01522944297602105</v>
+      </c>
+      <c r="G31">
+        <v>0.001236393609003975</v>
+      </c>
+      <c r="H31">
+        <v>-0.04677782697686785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0166372990083565</v>
+        <v>0.00969386491261361</v>
       </c>
       <c r="C32">
-        <v>0.03228856977733809</v>
+        <v>-0.0489192525727493</v>
       </c>
       <c r="D32">
-        <v>-0.09504304881257174</v>
+        <v>-0.1090575479319556</v>
       </c>
       <c r="E32">
-        <v>-0.06914072506009224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.002874203810418946</v>
+      </c>
+      <c r="F32">
+        <v>-0.05127661927689356</v>
+      </c>
+      <c r="G32">
+        <v>0.00827529907194554</v>
+      </c>
+      <c r="H32">
+        <v>-0.05302906576301752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008636627547949052</v>
+        <v>0.006940787060729277</v>
       </c>
       <c r="C33">
-        <v>0.04055571564101195</v>
+        <v>-0.05874910743883082</v>
       </c>
       <c r="D33">
-        <v>-0.1387511239261022</v>
+        <v>-0.1217870424135448</v>
       </c>
       <c r="E33">
-        <v>-0.04460732231197407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02714455265128969</v>
+      </c>
+      <c r="F33">
+        <v>-0.02818091281151301</v>
+      </c>
+      <c r="G33">
+        <v>0.0003940948736596996</v>
+      </c>
+      <c r="H33">
+        <v>-0.06266735338618974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02155216976514184</v>
+        <v>0.007384173446812033</v>
       </c>
       <c r="C34">
-        <v>0.05802336965458339</v>
+        <v>-0.06186307790470087</v>
       </c>
       <c r="D34">
-        <v>-0.05166093560501247</v>
+        <v>-0.02833846983099838</v>
       </c>
       <c r="E34">
-        <v>0.0436973303195762</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02873993896581757</v>
+      </c>
+      <c r="F34">
+        <v>0.03752698389828464</v>
+      </c>
+      <c r="G34">
+        <v>-0.01061060523854043</v>
+      </c>
+      <c r="H34">
+        <v>-0.05523687840171817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002577708254064786</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01022808389668343</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03295946180158061</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004291025333430626</v>
+      </c>
+      <c r="F35">
+        <v>-0.01809608531749192</v>
+      </c>
+      <c r="G35">
+        <v>0.0001938847555078634</v>
+      </c>
+      <c r="H35">
+        <v>-0.05044819666790777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006471674236461464</v>
+        <v>0.01185830208203696</v>
       </c>
       <c r="C36">
-        <v>0.006187752817033823</v>
+        <v>-0.02162823520470407</v>
       </c>
       <c r="D36">
-        <v>-0.08492748665486814</v>
+        <v>-0.07614560967133943</v>
       </c>
       <c r="E36">
-        <v>-0.0464956187491024</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02750419670556269</v>
+      </c>
+      <c r="F36">
+        <v>-0.04990547510938074</v>
+      </c>
+      <c r="G36">
+        <v>0.003201850382816347</v>
+      </c>
+      <c r="H36">
+        <v>-0.06392470430338797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00460469317987477</v>
+        <v>0.01364531676068981</v>
       </c>
       <c r="C38">
-        <v>0.005687308061865415</v>
+        <v>-0.02019043248539514</v>
       </c>
       <c r="D38">
-        <v>-0.09169335498346483</v>
+        <v>-0.08708256846221793</v>
       </c>
       <c r="E38">
-        <v>-0.01504398545795213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004544150571745336</v>
+      </c>
+      <c r="F38">
+        <v>-0.003646749900176471</v>
+      </c>
+      <c r="G38">
+        <v>0.0255721601938605</v>
+      </c>
+      <c r="H38">
+        <v>-0.06372338746140781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0152644204462876</v>
+        <v>0.0023806686866594</v>
       </c>
       <c r="C39">
-        <v>0.05656325422311426</v>
+        <v>-0.07620816905504486</v>
       </c>
       <c r="D39">
-        <v>-0.11248927854739</v>
+        <v>-0.09549516628020423</v>
       </c>
       <c r="E39">
-        <v>0.0101286421157443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05361927788003694</v>
+      </c>
+      <c r="F39">
+        <v>0.003541220527878882</v>
+      </c>
+      <c r="G39">
+        <v>-0.007723613203905625</v>
+      </c>
+      <c r="H39">
+        <v>-0.09509443106928604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01192218493007069</v>
+        <v>0.01279135722670485</v>
       </c>
       <c r="C40">
-        <v>0.01684335008210594</v>
+        <v>-0.03179017032254267</v>
       </c>
       <c r="D40">
-        <v>-0.1274954343486587</v>
+        <v>-0.1009158134047809</v>
       </c>
       <c r="E40">
-        <v>0.01305309564532021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.05236765585243803</v>
+      </c>
+      <c r="F40">
+        <v>0.02303735900870272</v>
+      </c>
+      <c r="G40">
+        <v>0.04214370853280273</v>
+      </c>
+      <c r="H40">
+        <v>-0.0951364251029183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009136357638830195</v>
+        <v>0.0161412399304189</v>
       </c>
       <c r="C41">
-        <v>0.003661646392685849</v>
+        <v>-0.01811950215106333</v>
       </c>
       <c r="D41">
-        <v>-0.04512449323955961</v>
+        <v>-0.04848729295421919</v>
       </c>
       <c r="E41">
-        <v>-0.03386166821525746</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.006826024047946606</v>
+      </c>
+      <c r="F41">
+        <v>-0.02528356412362738</v>
+      </c>
+      <c r="G41">
+        <v>0.005623673483239566</v>
+      </c>
+      <c r="H41">
+        <v>-0.04541234853821928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.001879289767773657</v>
+        <v>0.00890591619008366</v>
       </c>
       <c r="C43">
-        <v>0.004427453634439829</v>
+        <v>-0.0152359376559404</v>
       </c>
       <c r="D43">
-        <v>-0.05415536481048217</v>
+        <v>-0.05248582810083958</v>
       </c>
       <c r="E43">
-        <v>-0.02310677735128657</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.00941995641278529</v>
+      </c>
+      <c r="F43">
+        <v>-0.02053530042666696</v>
+      </c>
+      <c r="G43">
+        <v>0.008645607917291772</v>
+      </c>
+      <c r="H43">
+        <v>-0.05385913826841274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01584012393173245</v>
+        <v>0.01169240406569052</v>
       </c>
       <c r="C44">
-        <v>0.02280790082245591</v>
+        <v>-0.04716252619732211</v>
       </c>
       <c r="D44">
-        <v>-0.1057486740337324</v>
+        <v>-0.1103481766979301</v>
       </c>
       <c r="E44">
-        <v>-0.05170642149053032</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03816106130961971</v>
+      </c>
+      <c r="F44">
+        <v>-0.03730530389306372</v>
+      </c>
+      <c r="G44">
+        <v>0.02904339710545623</v>
+      </c>
+      <c r="H44">
+        <v>-0.05189093873188413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005196893207723426</v>
+        <v>0.0001871738460545032</v>
       </c>
       <c r="C46">
-        <v>0.02881601263790838</v>
+        <v>-0.0407075427499773</v>
       </c>
       <c r="D46">
-        <v>-0.08826152943335819</v>
+        <v>-0.07467160020208997</v>
       </c>
       <c r="E46">
-        <v>-0.02018535850557119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04219946199759027</v>
+      </c>
+      <c r="F46">
+        <v>-0.03416788896376073</v>
+      </c>
+      <c r="G46">
+        <v>0.01441018553988217</v>
+      </c>
+      <c r="H46">
+        <v>-0.1303345781784462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08056687558370439</v>
+        <v>0.03508950331603535</v>
       </c>
       <c r="C47">
-        <v>0.1078491599931739</v>
+        <v>-0.1261950926215613</v>
       </c>
       <c r="D47">
-        <v>-0.05699944898908173</v>
+        <v>-0.02161928755677615</v>
       </c>
       <c r="E47">
-        <v>-0.0319915002242387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007505740762261052</v>
+      </c>
+      <c r="F47">
+        <v>0.004335963008768703</v>
+      </c>
+      <c r="G47">
+        <v>-0.04050510471246647</v>
+      </c>
+      <c r="H47">
+        <v>-0.05677840051245563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00764423207004869</v>
+        <v>0.01357966096171788</v>
       </c>
       <c r="C48">
-        <v>0.01546539500055419</v>
+        <v>-0.0318076716081658</v>
       </c>
       <c r="D48">
-        <v>-0.08875030616870112</v>
+        <v>-0.08182007235308705</v>
       </c>
       <c r="E48">
-        <v>-0.05974102342727098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02068499277160957</v>
+      </c>
+      <c r="F48">
+        <v>-0.06034033173345386</v>
+      </c>
+      <c r="G48">
+        <v>0.008874920487229883</v>
+      </c>
+      <c r="H48">
+        <v>-0.1042479955494559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03538156301667331</v>
+        <v>0.01479247395268074</v>
       </c>
       <c r="C50">
-        <v>0.05976260965503621</v>
+        <v>-0.07574158278465244</v>
       </c>
       <c r="D50">
-        <v>-0.06010015693197651</v>
+        <v>-0.04725657465677871</v>
       </c>
       <c r="E50">
-        <v>-0.01028595578036984</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01078648313762819</v>
+      </c>
+      <c r="F50">
+        <v>-0.01036738131976438</v>
+      </c>
+      <c r="G50">
+        <v>0.01577668077451195</v>
+      </c>
+      <c r="H50">
+        <v>-0.0353038232071765</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.002361291092934158</v>
+        <v>-0.000574211960659071</v>
       </c>
       <c r="C51">
-        <v>0.004285639165422821</v>
+        <v>-0.01666652443379751</v>
       </c>
       <c r="D51">
-        <v>-0.0558791551748064</v>
+        <v>-0.05685564274644882</v>
       </c>
       <c r="E51">
-        <v>-0.00234990419457473</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03946428141674011</v>
+      </c>
+      <c r="F51">
+        <v>-0.03837694535720564</v>
+      </c>
+      <c r="G51">
+        <v>0.01914280585870452</v>
+      </c>
+      <c r="H51">
+        <v>-0.05252678534854669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1076904336792266</v>
+        <v>0.05463734885839511</v>
       </c>
       <c r="C53">
-        <v>0.1249021657416544</v>
+        <v>-0.156073249059668</v>
       </c>
       <c r="D53">
-        <v>-0.008937636144924301</v>
+        <v>0.02177442936214578</v>
       </c>
       <c r="E53">
-        <v>-0.06098713486389546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02969288881771522</v>
+      </c>
+      <c r="F53">
+        <v>-0.0495532060913496</v>
+      </c>
+      <c r="G53">
+        <v>0.001876729004926139</v>
+      </c>
+      <c r="H53">
+        <v>-0.004922751657508037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01079145731735654</v>
+        <v>0.009869523088814485</v>
       </c>
       <c r="C54">
-        <v>0.02062938842084235</v>
+        <v>-0.03743694641572549</v>
       </c>
       <c r="D54">
-        <v>-0.09047237804499486</v>
+        <v>-0.07658628496874674</v>
       </c>
       <c r="E54">
-        <v>-0.008170312775054893</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01529544921410298</v>
+      </c>
+      <c r="F54">
+        <v>-0.003922557464063313</v>
+      </c>
+      <c r="G54">
+        <v>0.02606834226957579</v>
+      </c>
+      <c r="H54">
+        <v>-0.07901892746089441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0948630327144072</v>
+        <v>0.04172505418208861</v>
       </c>
       <c r="C55">
-        <v>0.106030388848532</v>
+        <v>-0.1309954779932287</v>
       </c>
       <c r="D55">
-        <v>-0.005607704326142108</v>
+        <v>0.03105277739703445</v>
       </c>
       <c r="E55">
-        <v>-0.01158705863806915</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003855321578830277</v>
+      </c>
+      <c r="F55">
+        <v>-0.01492610431016956</v>
+      </c>
+      <c r="G55">
+        <v>0.006618736674430797</v>
+      </c>
+      <c r="H55">
+        <v>-0.01443889019603098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1327641958698481</v>
+        <v>0.05642789394353273</v>
       </c>
       <c r="C56">
-        <v>0.1428002523386846</v>
+        <v>-0.1887067734978314</v>
       </c>
       <c r="D56">
-        <v>-0.0007281229117152705</v>
+        <v>0.03150004540367243</v>
       </c>
       <c r="E56">
-        <v>-0.01291289629053507</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03148708150393359</v>
+      </c>
+      <c r="F56">
+        <v>-0.01739741845543404</v>
+      </c>
+      <c r="G56">
+        <v>0.05624762292381343</v>
+      </c>
+      <c r="H56">
+        <v>-0.004906391337220624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.009147455228471463</v>
+        <v>0.006648627441253376</v>
       </c>
       <c r="C58">
-        <v>0.01188197956691662</v>
+        <v>-0.05496652383571549</v>
       </c>
       <c r="D58">
-        <v>-0.2159365235391192</v>
+        <v>-0.2745175676848255</v>
       </c>
       <c r="E58">
-        <v>-0.08501659351389973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01389313040452883</v>
+      </c>
+      <c r="F58">
+        <v>-0.107152403805577</v>
+      </c>
+      <c r="G58">
+        <v>0.1325816471800227</v>
+      </c>
+      <c r="H58">
+        <v>0.09375407899409539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1806040729591264</v>
+        <v>0.2530548545326324</v>
       </c>
       <c r="C59">
-        <v>-0.1481965129623385</v>
+        <v>0.06309830948098891</v>
       </c>
       <c r="D59">
-        <v>-0.04508366471343294</v>
+        <v>-0.05634167864989243</v>
       </c>
       <c r="E59">
-        <v>-0.03737863346161205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02052538905632408</v>
+      </c>
+      <c r="F59">
+        <v>-0.02332491556716927</v>
+      </c>
+      <c r="G59">
+        <v>0.01172075377812713</v>
+      </c>
+      <c r="H59">
+        <v>0.004212856184577423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1838292020016398</v>
+        <v>0.148905829863957</v>
       </c>
       <c r="C60">
-        <v>0.1011788180999026</v>
+        <v>-0.1718815962841548</v>
       </c>
       <c r="D60">
-        <v>-0.2092823471708581</v>
+        <v>-0.08501059317375634</v>
       </c>
       <c r="E60">
-        <v>0.1650957078618434</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1662057415271105</v>
+      </c>
+      <c r="F60">
+        <v>0.2261077641677509</v>
+      </c>
+      <c r="G60">
+        <v>-0.2312353625424954</v>
+      </c>
+      <c r="H60">
+        <v>0.2198337043006306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02469929821658899</v>
+        <v>0.0109589300777393</v>
       </c>
       <c r="C61">
-        <v>0.05335628744248308</v>
+        <v>-0.07450782339505424</v>
       </c>
       <c r="D61">
-        <v>-0.09870915880028154</v>
+        <v>-0.07889983586518386</v>
       </c>
       <c r="E61">
-        <v>0.00213821867576393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03794699167401328</v>
+      </c>
+      <c r="F61">
+        <v>0.01239880157025388</v>
+      </c>
+      <c r="G61">
+        <v>-0.02711826869514643</v>
+      </c>
+      <c r="H61">
+        <v>-0.08947744602968273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.006780670360385934</v>
+        <v>0.008308408756795302</v>
       </c>
       <c r="C63">
-        <v>0.02524018010335769</v>
+        <v>-0.03672196128213026</v>
       </c>
       <c r="D63">
-        <v>-0.09450877356522971</v>
+        <v>-0.06794336698648579</v>
       </c>
       <c r="E63">
-        <v>-0.01765861546298818</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05758166388385768</v>
+      </c>
+      <c r="F63">
+        <v>-0.027769080828594</v>
+      </c>
+      <c r="G63">
+        <v>0.007730594019616233</v>
+      </c>
+      <c r="H63">
+        <v>-0.06667981822342532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05610909633313866</v>
+        <v>0.01668259346819894</v>
       </c>
       <c r="C64">
-        <v>0.08314103705497808</v>
+        <v>-0.1049319909045289</v>
       </c>
       <c r="D64">
-        <v>-0.03310141401096825</v>
+        <v>-0.01650201295160747</v>
       </c>
       <c r="E64">
-        <v>-0.01735139568284074</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02459179483077325</v>
+      </c>
+      <c r="F64">
+        <v>-0.01867540123934858</v>
+      </c>
+      <c r="G64">
+        <v>-0.04601555891395634</v>
+      </c>
+      <c r="H64">
+        <v>-0.08620022441866687</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02410062890739468</v>
+        <v>0.02080007881155684</v>
       </c>
       <c r="C65">
-        <v>0.01554918753766967</v>
+        <v>-0.04395083848377308</v>
       </c>
       <c r="D65">
-        <v>-0.1143879418573195</v>
+        <v>-0.1157462123029728</v>
       </c>
       <c r="E65">
-        <v>-0.008638706443527273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04292344679629978</v>
+      </c>
+      <c r="F65">
+        <v>0.005489736123402013</v>
+      </c>
+      <c r="G65">
+        <v>-0.02604182568350692</v>
+      </c>
+      <c r="H65">
+        <v>-0.01817712694829759</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01890809194073628</v>
+        <v>-0.0003458509410491786</v>
       </c>
       <c r="C66">
-        <v>0.06446075177726963</v>
+        <v>-0.0944559603585349</v>
       </c>
       <c r="D66">
-        <v>-0.1206756949254159</v>
+        <v>-0.1208911510010087</v>
       </c>
       <c r="E66">
-        <v>0.01275734959465719</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04196576460577291</v>
+      </c>
+      <c r="F66">
+        <v>0.009847975814582797</v>
+      </c>
+      <c r="G66">
+        <v>0.01322325959003599</v>
+      </c>
+      <c r="H66">
+        <v>-0.05982294300848148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02383771543191939</v>
+        <v>0.02379685258103772</v>
       </c>
       <c r="C67">
-        <v>0.01867519259103607</v>
+        <v>-0.03225294652503336</v>
       </c>
       <c r="D67">
-        <v>-0.04830099067765632</v>
+        <v>-0.04072588343597378</v>
       </c>
       <c r="E67">
-        <v>0.01242522918435037</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01066935936013609</v>
+      </c>
+      <c r="F67">
+        <v>0.02473373889653943</v>
+      </c>
+      <c r="G67">
+        <v>0.01042973447056844</v>
+      </c>
+      <c r="H67">
+        <v>-0.06743155551740757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.203517657334355</v>
+        <v>0.2733486451978155</v>
       </c>
       <c r="C68">
-        <v>-0.1570494124128589</v>
+        <v>0.06852451132324389</v>
       </c>
       <c r="D68">
-        <v>-0.02927781703090751</v>
+        <v>-0.02456044658414853</v>
       </c>
       <c r="E68">
-        <v>-0.007322700553438091</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005493397632758855</v>
+      </c>
+      <c r="F68">
+        <v>-0.02506607643487428</v>
+      </c>
+      <c r="G68">
+        <v>0.06958777691242773</v>
+      </c>
+      <c r="H68">
+        <v>0.0504962070452246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05626921721845148</v>
+        <v>0.01907498158426562</v>
       </c>
       <c r="C69">
-        <v>0.1149949033354853</v>
+        <v>-0.1178782579635377</v>
       </c>
       <c r="D69">
-        <v>-0.07740872207375861</v>
+        <v>-0.02872447387785569</v>
       </c>
       <c r="E69">
-        <v>-0.0192228476061059</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008396170275720222</v>
+      </c>
+      <c r="F69">
+        <v>0.008171950176919395</v>
+      </c>
+      <c r="G69">
+        <v>-0.0227620252427094</v>
+      </c>
+      <c r="H69">
+        <v>-0.04594163179967499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2131056088214313</v>
+        <v>0.2749184676054034</v>
       </c>
       <c r="C71">
-        <v>-0.1803881981771355</v>
+        <v>0.08087296771249505</v>
       </c>
       <c r="D71">
-        <v>-0.01859136730576549</v>
+        <v>-0.01699895469532999</v>
       </c>
       <c r="E71">
-        <v>-0.01277027726448134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001300827817778156</v>
+      </c>
+      <c r="F71">
+        <v>-0.02082824786186711</v>
+      </c>
+      <c r="G71">
+        <v>0.03434331154791084</v>
+      </c>
+      <c r="H71">
+        <v>-0.02070498519815544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1039279677519035</v>
+        <v>0.05589022078570272</v>
       </c>
       <c r="C72">
-        <v>0.07579361725280798</v>
+        <v>-0.1251816103923844</v>
       </c>
       <c r="D72">
-        <v>-0.1097896357646519</v>
+        <v>-0.05728303241368937</v>
       </c>
       <c r="E72">
-        <v>0.04562602169654784</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06976898356519416</v>
+      </c>
+      <c r="F72">
+        <v>0.02948068169939384</v>
+      </c>
+      <c r="G72">
+        <v>-0.03745222119043312</v>
+      </c>
+      <c r="H72">
+        <v>-0.04892069367515914</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1717464398338091</v>
+        <v>0.1416007187279265</v>
       </c>
       <c r="C73">
-        <v>0.06466517664587836</v>
+        <v>-0.1451225665360074</v>
       </c>
       <c r="D73">
-        <v>-0.2802386246772776</v>
+        <v>-0.09597507397808219</v>
       </c>
       <c r="E73">
-        <v>0.2492910192866741</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2927846818183493</v>
+      </c>
+      <c r="F73">
+        <v>0.3199039225516481</v>
+      </c>
+      <c r="G73">
+        <v>-0.413905871982039</v>
+      </c>
+      <c r="H73">
+        <v>0.152132761920551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1068381544893636</v>
+        <v>0.04970215186293579</v>
       </c>
       <c r="C74">
-        <v>0.1155747084446863</v>
+        <v>-0.1451017675661529</v>
       </c>
       <c r="D74">
-        <v>0.01817399503678259</v>
+        <v>0.04215789861712071</v>
       </c>
       <c r="E74">
-        <v>-0.03943917663649917</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01153224573429565</v>
+      </c>
+      <c r="F74">
+        <v>-0.03686838831640633</v>
+      </c>
+      <c r="G74">
+        <v>-0.006718733553001963</v>
+      </c>
+      <c r="H74">
+        <v>0.01014626779389837</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2333347017772167</v>
+        <v>0.1087256007703111</v>
       </c>
       <c r="C75">
-        <v>0.2001117502544196</v>
+        <v>-0.2682118290948912</v>
       </c>
       <c r="D75">
-        <v>0.1048777104353673</v>
+        <v>0.1367741073476818</v>
       </c>
       <c r="E75">
-        <v>0.0277569388908118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08877694915644108</v>
+      </c>
+      <c r="F75">
+        <v>0.02891779076137892</v>
+      </c>
+      <c r="G75">
+        <v>0.09442244995425213</v>
+      </c>
+      <c r="H75">
+        <v>-0.01614427571632551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1393176541978363</v>
+        <v>0.06180663784049154</v>
       </c>
       <c r="C76">
-        <v>0.138681615348227</v>
+        <v>-0.1815823524473442</v>
       </c>
       <c r="D76">
-        <v>-0.01430023691503465</v>
+        <v>0.03833035271155602</v>
       </c>
       <c r="E76">
-        <v>-0.01356148381210327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02190718046727529</v>
+      </c>
+      <c r="F76">
+        <v>-0.004257156147231908</v>
+      </c>
+      <c r="G76">
+        <v>0.03454664440599695</v>
+      </c>
+      <c r="H76">
+        <v>-0.03464910041621151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.02108409987517993</v>
+        <v>0.001494364950983834</v>
       </c>
       <c r="C77">
-        <v>0.06724464315370791</v>
+        <v>-0.1065161644884642</v>
       </c>
       <c r="D77">
-        <v>0.009916964118063509</v>
+        <v>-0.3158573322757786</v>
       </c>
       <c r="E77">
-        <v>-0.2457690817258011</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8396644214539221</v>
+      </c>
+      <c r="F77">
+        <v>0.2302415898750982</v>
+      </c>
+      <c r="G77">
+        <v>-0.2099397958882257</v>
+      </c>
+      <c r="H77">
+        <v>0.1398383428439519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.025857936398565</v>
+        <v>0.01647155739479881</v>
       </c>
       <c r="C78">
-        <v>0.06893251189259368</v>
+        <v>-0.09127373937401274</v>
       </c>
       <c r="D78">
-        <v>-0.149792416969299</v>
+        <v>-0.1186883505033527</v>
       </c>
       <c r="E78">
-        <v>-0.04795615694609832</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06814177605729912</v>
+      </c>
+      <c r="F78">
+        <v>-0.04319366048465272</v>
+      </c>
+      <c r="G78">
+        <v>0.0326274575182088</v>
+      </c>
+      <c r="H78">
+        <v>-0.02754468157538171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09607352704942704</v>
+        <v>0.03466428514919124</v>
       </c>
       <c r="C79">
-        <v>0.175144807439095</v>
+        <v>-0.1930740671327583</v>
       </c>
       <c r="D79">
-        <v>0.1116986494490426</v>
+        <v>0.07110051669307559</v>
       </c>
       <c r="E79">
-        <v>-0.7847552017565155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05312205262598138</v>
+      </c>
+      <c r="F79">
+        <v>-0.7714367512764592</v>
+      </c>
+      <c r="G79">
+        <v>-0.4066796377281464</v>
+      </c>
+      <c r="H79">
+        <v>0.3089351121308991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.005261820762383551</v>
+        <v>0.005433476161496802</v>
       </c>
       <c r="C80">
-        <v>0.04652300917534604</v>
+        <v>-0.0469189988981351</v>
       </c>
       <c r="D80">
-        <v>-0.04887757756861724</v>
+        <v>-0.03930647217860408</v>
       </c>
       <c r="E80">
-        <v>0.006699206581700624</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04333936832402529</v>
+      </c>
+      <c r="F80">
+        <v>-0.004977656251484329</v>
+      </c>
+      <c r="G80">
+        <v>0.01507096134718045</v>
+      </c>
+      <c r="H80">
+        <v>-0.03048036009284124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1195614622555652</v>
+        <v>0.0436630785049693</v>
       </c>
       <c r="C81">
-        <v>0.135170381879481</v>
+        <v>-0.1691942313456268</v>
       </c>
       <c r="D81">
-        <v>0.06939387272072257</v>
+        <v>0.0753443290784568</v>
       </c>
       <c r="E81">
-        <v>-0.0594018546685571</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04913011267618693</v>
+      </c>
+      <c r="F81">
+        <v>-0.06552925046965183</v>
+      </c>
+      <c r="G81">
+        <v>0.04430900307723359</v>
+      </c>
+      <c r="H81">
+        <v>-0.08023685151264039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2521185078434868</v>
+        <v>0.09113748570769478</v>
       </c>
       <c r="C82">
-        <v>0.2984604976705288</v>
+        <v>-0.3218276836291604</v>
       </c>
       <c r="D82">
-        <v>0.1942534638248073</v>
+        <v>0.238516042954262</v>
       </c>
       <c r="E82">
-        <v>0.1423747443537103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05815853541031938</v>
+      </c>
+      <c r="F82">
+        <v>0.1055703215193522</v>
+      </c>
+      <c r="G82">
+        <v>0.09426599291112119</v>
+      </c>
+      <c r="H82">
+        <v>-0.1150939000001504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.007114944393231014</v>
+        <v>-0.01304495124830758</v>
       </c>
       <c r="C83">
-        <v>0.05090344299362851</v>
+        <v>-0.02576650798515823</v>
       </c>
       <c r="D83">
-        <v>-1.385136426825485e-05</v>
+        <v>-0.02684588075043568</v>
       </c>
       <c r="E83">
-        <v>-0.06186217414508797</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0785137926346344</v>
+      </c>
+      <c r="F83">
+        <v>-0.07024600099001567</v>
+      </c>
+      <c r="G83">
+        <v>0.03449391856397672</v>
+      </c>
+      <c r="H83">
+        <v>-0.09589715865301175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001480352426333208</v>
+        <v>-0.0003920856231291589</v>
       </c>
       <c r="C84">
-        <v>-0.0002456941046140406</v>
+        <v>-0.01946026232706036</v>
       </c>
       <c r="D84">
-        <v>-0.009001020731323398</v>
+        <v>-0.04822111437622308</v>
       </c>
       <c r="E84">
-        <v>0.00250816241177706</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003409543650215127</v>
+      </c>
+      <c r="F84">
+        <v>-0.02807487745316497</v>
+      </c>
+      <c r="G84">
+        <v>0.05007024035609448</v>
+      </c>
+      <c r="H84">
+        <v>-0.01415232222867996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1406559450481914</v>
+        <v>0.0576603107498485</v>
       </c>
       <c r="C85">
-        <v>0.1393200866809433</v>
+        <v>-0.1830910848147031</v>
       </c>
       <c r="D85">
-        <v>0.04060952182759908</v>
+        <v>0.09023165009693687</v>
       </c>
       <c r="E85">
-        <v>-0.02354185592698626</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0006038049756455456</v>
+      </c>
+      <c r="F85">
+        <v>-0.07551694978577375</v>
+      </c>
+      <c r="G85">
+        <v>0.02076472336717952</v>
+      </c>
+      <c r="H85">
+        <v>0.0027853859879099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01366575221076044</v>
+        <v>0.01351419915507706</v>
       </c>
       <c r="C86">
-        <v>0.01402019940252643</v>
+        <v>-0.03259969896153131</v>
       </c>
       <c r="D86">
-        <v>-0.08452228274786472</v>
+        <v>-0.1025968356513687</v>
       </c>
       <c r="E86">
-        <v>-0.05379645582157053</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0223824802298448</v>
+      </c>
+      <c r="F86">
+        <v>0.001901575865364539</v>
+      </c>
+      <c r="G86">
+        <v>-0.01743126773991515</v>
+      </c>
+      <c r="H86">
+        <v>-0.01882382831693034</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01929900871541924</v>
+        <v>0.01263355084415747</v>
       </c>
       <c r="C87">
-        <v>0.02446280720824135</v>
+        <v>-0.05790189399234239</v>
       </c>
       <c r="D87">
-        <v>-0.1335741470187745</v>
+        <v>-0.1427291082257786</v>
       </c>
       <c r="E87">
-        <v>-0.05814550820493265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01458810379506985</v>
+      </c>
+      <c r="F87">
+        <v>-0.04020412669272028</v>
+      </c>
+      <c r="G87">
+        <v>0.05297820320845122</v>
+      </c>
+      <c r="H87">
+        <v>-0.04260919883327906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05304283397707189</v>
+        <v>0.03438808416873691</v>
       </c>
       <c r="C88">
-        <v>0.04451143596647247</v>
+        <v>-0.06777222203364498</v>
       </c>
       <c r="D88">
-        <v>-0.02864321062595342</v>
+        <v>-0.0134525842529294</v>
       </c>
       <c r="E88">
-        <v>-0.03059645022718692</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02729654723715346</v>
+      </c>
+      <c r="F88">
+        <v>-0.0199620773291427</v>
+      </c>
+      <c r="G88">
+        <v>-0.01048349867657523</v>
+      </c>
+      <c r="H88">
+        <v>-0.01702155854118451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3226121466540341</v>
+        <v>0.40694938385375</v>
       </c>
       <c r="C89">
-        <v>-0.3275792416028466</v>
+        <v>0.1559071033526895</v>
       </c>
       <c r="D89">
-        <v>-0.01119172903466353</v>
+        <v>-0.02708672666832221</v>
       </c>
       <c r="E89">
-        <v>-0.1060558811475252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05361837188612291</v>
+      </c>
+      <c r="F89">
+        <v>-0.06858294626559279</v>
+      </c>
+      <c r="G89">
+        <v>0.04172850533912557</v>
+      </c>
+      <c r="H89">
+        <v>-0.1019703603558348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2549314445129502</v>
+        <v>0.3191659579617009</v>
       </c>
       <c r="C90">
-        <v>-0.2384679242550375</v>
+        <v>0.1031028784869865</v>
       </c>
       <c r="D90">
-        <v>-0.04226392718673976</v>
+        <v>-0.0377471504190793</v>
       </c>
       <c r="E90">
-        <v>0.007787117477163276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01150327352980021</v>
+      </c>
+      <c r="F90">
+        <v>0.00763057001809676</v>
+      </c>
+      <c r="G90">
+        <v>0.05774437771373367</v>
+      </c>
+      <c r="H90">
+        <v>0.00331777526791111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1557008311943444</v>
+        <v>0.06789018115106533</v>
       </c>
       <c r="C91">
-        <v>0.1874496087470732</v>
+        <v>-0.2093995503101835</v>
       </c>
       <c r="D91">
-        <v>0.0938220599332987</v>
+        <v>0.1077751984702921</v>
       </c>
       <c r="E91">
-        <v>-0.08945491075499171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05977683148739898</v>
+      </c>
+      <c r="F91">
+        <v>-0.07382336940043741</v>
+      </c>
+      <c r="G91">
+        <v>0.004475423407180962</v>
+      </c>
+      <c r="H91">
+        <v>-0.0032742570380316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2415225749609218</v>
+        <v>0.338448941726853</v>
       </c>
       <c r="C92">
-        <v>-0.2601593831770734</v>
+        <v>0.1408263807408202</v>
       </c>
       <c r="D92">
-        <v>0.05498649938351179</v>
+        <v>-0.003148110837606081</v>
       </c>
       <c r="E92">
-        <v>-0.04736609303210552</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06402718483924096</v>
+      </c>
+      <c r="F92">
+        <v>-0.03094504754600766</v>
+      </c>
+      <c r="G92">
+        <v>0.02915069629583855</v>
+      </c>
+      <c r="H92">
+        <v>-0.01907393403414213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2806373185036886</v>
+        <v>0.3354121215788697</v>
       </c>
       <c r="C93">
-        <v>-0.2508905138348211</v>
+        <v>0.1149052472569039</v>
       </c>
       <c r="D93">
-        <v>-0.01525792811720035</v>
+        <v>0.0173285138057453</v>
       </c>
       <c r="E93">
-        <v>-0.0008832925735817658</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02504413620860039</v>
+      </c>
+      <c r="F93">
+        <v>-0.00920215872611314</v>
+      </c>
+      <c r="G93">
+        <v>-0.01864701520722538</v>
+      </c>
+      <c r="H93">
+        <v>0.003836130291182736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.295289561944753</v>
+        <v>0.127210424649255</v>
       </c>
       <c r="C94">
-        <v>0.2744315483388055</v>
+        <v>-0.3513901829678081</v>
       </c>
       <c r="D94">
-        <v>0.3453439846490006</v>
+        <v>0.3629535755111211</v>
       </c>
       <c r="E94">
-        <v>0.2199917879763843</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06202389385070985</v>
+      </c>
+      <c r="F94">
+        <v>0.1032800634225661</v>
+      </c>
+      <c r="G94">
+        <v>0.3222075055054333</v>
+      </c>
+      <c r="H94">
+        <v>0.05198534891059652</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01435397757375688</v>
+        <v>0.01830629035908542</v>
       </c>
       <c r="C95">
-        <v>0.03770408966614915</v>
+        <v>-0.06346645480520152</v>
       </c>
       <c r="D95">
-        <v>-0.01572874037588665</v>
+        <v>-0.1083077403176642</v>
       </c>
       <c r="E95">
-        <v>-0.1005281040956165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1554214131178051</v>
+      </c>
+      <c r="F95">
+        <v>0.02012093899137607</v>
+      </c>
+      <c r="G95">
+        <v>-0.07828894810394503</v>
+      </c>
+      <c r="H95">
+        <v>-0.335295868604036</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001393941044803702</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0007654279772761982</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0007549986642971443</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003795482548207724</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003528325627519576</v>
+      </c>
+      <c r="G97">
+        <v>0.0002759107753394861</v>
+      </c>
+      <c r="H97">
+        <v>-0.003950912006442909</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1443066429854913</v>
+        <v>0.1146273295139343</v>
       </c>
       <c r="C98">
-        <v>0.08677758056422004</v>
+        <v>-0.1514414552350683</v>
       </c>
       <c r="D98">
-        <v>-0.1638737789996492</v>
+        <v>-0.06248681809503095</v>
       </c>
       <c r="E98">
-        <v>0.1979188948823014</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2028368933426123</v>
+      </c>
+      <c r="F98">
+        <v>0.2480558614535841</v>
+      </c>
+      <c r="G98">
+        <v>-0.2832833986636466</v>
+      </c>
+      <c r="H98">
+        <v>0.165565327656913</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0009319514911235155</v>
+        <v>0.001484217033556876</v>
       </c>
       <c r="C101">
-        <v>0.01992908286137352</v>
+        <v>-0.03540574296928328</v>
       </c>
       <c r="D101">
-        <v>-0.09575259728639142</v>
+        <v>-0.1028353873839208</v>
       </c>
       <c r="E101">
-        <v>-0.01975147706840103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05742317977343454</v>
+      </c>
+      <c r="F101">
+        <v>-0.03984955988773373</v>
+      </c>
+      <c r="G101">
+        <v>-0.0001208878384083928</v>
+      </c>
+      <c r="H101">
+        <v>-0.1382142585192553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1056103962129548</v>
+        <v>0.02852963898946121</v>
       </c>
       <c r="C102">
-        <v>0.1587628900722868</v>
+        <v>-0.1491577892206559</v>
       </c>
       <c r="D102">
-        <v>0.0605951887472851</v>
+        <v>0.09756570315405377</v>
       </c>
       <c r="E102">
-        <v>0.05086737576426978</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03579544981327522</v>
+      </c>
+      <c r="F102">
+        <v>0.06324714119620894</v>
+      </c>
+      <c r="G102">
+        <v>-0.006926926345864662</v>
+      </c>
+      <c r="H102">
+        <v>-0.05142567371763995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
